--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69959857-3895-4BCF-9F7F-F4D18BB093F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6B11F-0303-4C27-89CD-324AF311CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="15585" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="271">
   <si>
     <t>track</t>
   </si>
@@ -961,6 +961,20 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UHLoMv80BCg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>A song for You! You? You!!</t>
+  </si>
+  <si>
+    <t>なってしまった！</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yCz_vEmTHFQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cB6JNen6HPI</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2000,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3777,7 +3791,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3789,7 +3803,7 @@
       <c r="E89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89">
         <v>19</v>
       </c>
     </row>
@@ -3797,7 +3811,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3809,7 +3823,7 @@
       <c r="E90" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90">
         <v>20</v>
       </c>
     </row>
@@ -3817,7 +3831,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3829,7 +3843,7 @@
       <c r="E91" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91">
         <v>21</v>
       </c>
     </row>
@@ -3837,7 +3851,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3849,7 +3863,7 @@
       <c r="E92" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92">
         <v>22</v>
       </c>
     </row>
@@ -3857,7 +3871,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3869,7 +3883,7 @@
       <c r="E93" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93">
         <v>23</v>
       </c>
     </row>
@@ -3877,7 +3891,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3889,7 +3903,7 @@
       <c r="E94" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94">
         <v>24</v>
       </c>
     </row>
@@ -3897,7 +3911,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3909,7 +3923,7 @@
       <c r="E95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95">
         <v>25</v>
       </c>
     </row>
@@ -3917,7 +3931,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3929,7 +3943,7 @@
       <c r="E96" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96">
         <v>26</v>
       </c>
     </row>
@@ -3937,7 +3951,7 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="3">
         <v>10</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -3949,7 +3963,7 @@
       <c r="E97" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="3">
         <v>27</v>
       </c>
     </row>
@@ -3957,7 +3971,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3969,7 +3983,7 @@
       <c r="E98" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98">
         <v>28</v>
       </c>
     </row>
@@ -3977,7 +3991,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99">
         <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3989,7 +4003,7 @@
       <c r="E99" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99">
         <v>29</v>
       </c>
     </row>
@@ -3997,7 +4011,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100">
         <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4009,7 +4023,7 @@
       <c r="E100" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100">
         <v>30</v>
       </c>
     </row>
@@ -4017,7 +4031,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101">
         <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4029,7 +4043,7 @@
       <c r="E101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101">
         <v>31</v>
       </c>
     </row>
@@ -4037,7 +4051,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102">
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -4049,7 +4063,7 @@
       <c r="E102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102">
         <v>15</v>
       </c>
     </row>
@@ -4057,7 +4071,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103">
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -4069,7 +4083,7 @@
       <c r="E103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103">
         <v>16</v>
       </c>
     </row>
@@ -4077,7 +4091,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104">
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -4089,7 +4103,7 @@
       <c r="E104" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104">
         <v>14</v>
       </c>
     </row>
@@ -4097,7 +4111,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105">
         <v>11</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -4109,7 +4123,7 @@
       <c r="E105" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105">
         <v>13</v>
       </c>
     </row>
@@ -4117,7 +4131,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106">
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -4129,7 +4143,7 @@
       <c r="E106" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106">
         <v>34</v>
       </c>
     </row>
@@ -4137,7 +4151,7 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="3">
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4149,7 +4163,7 @@
       <c r="E107" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="3">
         <v>35</v>
       </c>
     </row>
@@ -4157,7 +4171,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108">
         <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -4169,7 +4183,7 @@
       <c r="E108" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108">
         <v>101</v>
       </c>
     </row>
@@ -4177,7 +4191,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109">
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -4189,7 +4203,7 @@
       <c r="E109" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109">
         <v>102</v>
       </c>
     </row>
@@ -4197,7 +4211,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110">
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -4209,7 +4223,7 @@
       <c r="E110" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110">
         <v>103</v>
       </c>
     </row>
@@ -4217,7 +4231,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111">
         <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -4229,7 +4243,7 @@
       <c r="E111" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111">
         <v>103</v>
       </c>
     </row>
@@ -4237,7 +4251,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112">
         <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -4249,7 +4263,7 @@
       <c r="E112" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112">
         <v>104</v>
       </c>
     </row>
@@ -4257,7 +4271,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113">
         <v>12</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -4269,7 +4283,7 @@
       <c r="E113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113">
         <v>105</v>
       </c>
     </row>
@@ -4277,7 +4291,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114">
         <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -4289,7 +4303,7 @@
       <c r="E114" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114">
         <v>106</v>
       </c>
     </row>
@@ -4297,7 +4311,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115">
         <v>12</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -4309,7 +4323,7 @@
       <c r="E115" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115">
         <v>111</v>
       </c>
     </row>
@@ -4317,7 +4331,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116">
         <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4329,7 +4343,7 @@
       <c r="E116" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116">
         <v>116</v>
       </c>
     </row>
@@ -4337,7 +4351,7 @@
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="3">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -4349,8 +4363,48 @@
       <c r="E117" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="3">
         <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="6">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6">
+        <v>13</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7">
+        <v>13</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="7">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4651,6 +4705,12 @@
     <hyperlink ref="E115" r:id="rId293" xr:uid="{D0354DD9-F7F6-476F-89D2-1BD8F1EE7EB2}"/>
     <hyperlink ref="E116" r:id="rId294" xr:uid="{37943F27-E4FF-4939-837E-E5A49BB7A65D}"/>
     <hyperlink ref="E117" r:id="rId295" xr:uid="{5CBA6C77-8C09-4F24-84C8-2BF4EAADF30C}"/>
+    <hyperlink ref="C118" r:id="rId296" display="https://ll-fans.jp/data/song/118" xr:uid="{72086E8B-102E-4B91-93CF-5776B0F322CB}"/>
+    <hyperlink ref="C119" r:id="rId297" display="https://ll-fans.jp/data/song/119" xr:uid="{151257E9-576E-4CAF-95AE-E5DD4DADB75D}"/>
+    <hyperlink ref="D118" r:id="rId298" display="https://ll-fans.jp/data/artist/1" xr:uid="{6BA4488C-FB08-417D-929B-6071C334EA0A}"/>
+    <hyperlink ref="D119" r:id="rId299" display="https://ll-fans.jp/data/artist/1" xr:uid="{622226E3-3908-4C50-9B14-AFFF1209E822}"/>
+    <hyperlink ref="E118" r:id="rId300" xr:uid="{DA191C96-31CD-4B10-98F2-982743B5FEE0}"/>
+    <hyperlink ref="E119" r:id="rId301" xr:uid="{6DCFFA72-1ABD-461C-960A-7487369D6A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6B11F-0303-4C27-89CD-324AF311CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9E058-21EF-494C-9560-433442B42530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
@@ -1613,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,10 +1632,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,7 +1681,47 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1695,6 +1732,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}" name="テーブル1" displayName="テーブル1" ref="A1:F119" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" dataCellStyle="ハイパーリンク">
+  <autoFilter ref="A1:F119" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F119">
+    <sortCondition ref="A1:A119"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2A85E5E5-60E1-4317-BC86-9B1078CFDF4F}" name="track"/>
+    <tableColumn id="2" xr3:uid="{84BD08B5-F4F4-4182-8050-99D4031C6651}" name="disc"/>
+    <tableColumn id="3" xr3:uid="{D284F706-16C6-4558-907D-250FF29FDEF7}" name="title" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{6602732D-7A38-4523-A26A-F6074063402E}" name="artist" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{DD46779E-A59E-4D1F-83DA-81EAFB7F3582}" name="url" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="6" xr3:uid="{B9FE4FFA-8B00-418E-89E0-72C0DDE5804A}" name="ll-fans"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2016,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2048,62 +2103,62 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2128,42 +2183,42 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2188,22 +2243,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2248,22 +2303,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>60</v>
       </c>
     </row>
@@ -2348,22 +2403,22 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>39</v>
       </c>
     </row>
@@ -2388,42 +2443,42 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>42</v>
       </c>
     </row>
@@ -2448,22 +2503,22 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>45</v>
       </c>
     </row>
@@ -2588,10 +2643,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2600,10 +2655,10 @@
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>57</v>
       </c>
     </row>
@@ -2668,22 +2723,22 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>67</v>
       </c>
     </row>
@@ -2868,22 +2923,22 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>79</v>
       </c>
     </row>
@@ -2928,22 +2983,22 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>86</v>
       </c>
     </row>
@@ -3068,42 +3123,42 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="6">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="6">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>107</v>
       </c>
     </row>
@@ -3168,42 +3223,42 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>7</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>6</v>
       </c>
     </row>
@@ -3228,22 +3283,22 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="6">
         <v>56</v>
       </c>
     </row>
@@ -3288,22 +3343,22 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>7</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <v>109</v>
       </c>
     </row>
@@ -3328,22 +3383,22 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>7</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <v>59</v>
       </c>
     </row>
@@ -3468,22 +3523,22 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>8</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="6">
         <v>89</v>
       </c>
     </row>
@@ -3648,22 +3703,22 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>9</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="6">
         <v>51</v>
       </c>
     </row>
@@ -3708,22 +3763,22 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>9</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="6">
         <v>112</v>
       </c>
     </row>
@@ -3808,22 +3863,22 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>10</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="6">
         <v>20</v>
       </c>
     </row>
@@ -3848,42 +3903,42 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>10</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="6">
         <v>10</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="6">
         <v>23</v>
       </c>
     </row>
@@ -3908,42 +3963,42 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="6">
         <v>10</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="6">
         <v>10</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="6">
         <v>26</v>
       </c>
     </row>
@@ -3988,62 +4043,62 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>11</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>11</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>11</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="6">
         <v>31</v>
       </c>
     </row>
@@ -4108,22 +4163,22 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="6">
         <v>11</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="6">
         <v>13</v>
       </c>
     </row>
@@ -4228,22 +4283,22 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="6">
         <v>12</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="D111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="6">
         <v>103</v>
       </c>
     </row>
@@ -4374,13 +4429,13 @@
       <c r="B118" s="6">
         <v>13</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>269</v>
       </c>
       <c r="F118" s="6">
@@ -4388,22 +4443,22 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>13</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="4" t="s">
+      <c r="D119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <v>119</v>
       </c>
     </row>
@@ -4713,5 +4768,8 @@
     <hyperlink ref="E119" r:id="rId301" xr:uid="{6DCFFA72-1ABD-461C-960A-7487369D6A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId302"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A9E058-21EF-494C-9560-433442B42530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968BC58-6241-435B-A511-FEFAE8E2FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="13305" yWindow="0" windowWidth="15600" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="272">
   <si>
     <t>track</t>
   </si>
@@ -977,12 +977,16 @@
     <t>https://www.youtube.com/watch?v=cB6JNen6HPI</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1172,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1613,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,7 +1642,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="31" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,6 +1696,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1707,20 +1734,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1735,16 +1748,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}" name="テーブル1" displayName="テーブル1" ref="A1:F119" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" dataCellStyle="ハイパーリンク">
-  <autoFilter ref="A1:F119" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}" name="テーブル1" displayName="テーブル1" ref="A1:G119" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" dataCellStyle="ハイパーリンク">
+  <autoFilter ref="A1:G119" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G119">
     <sortCondition ref="A1:A119"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2A85E5E5-60E1-4317-BC86-9B1078CFDF4F}" name="track"/>
     <tableColumn id="2" xr3:uid="{84BD08B5-F4F4-4182-8050-99D4031C6651}" name="disc"/>
     <tableColumn id="3" xr3:uid="{D284F706-16C6-4558-907D-250FF29FDEF7}" name="title" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="4" xr3:uid="{6602732D-7A38-4523-A26A-F6074063402E}" name="artist" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="7" xr3:uid="{D54A26A7-13B7-4BAA-AD64-2475E02DBA95}" name="date"/>
     <tableColumn id="5" xr3:uid="{DD46779E-A59E-4D1F-83DA-81EAFB7F3582}" name="url" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="6" xr3:uid="{B9FE4FFA-8B00-418E-89E0-72C0DDE5804A}" name="ll-fans"/>
   </tableColumns>
@@ -2069,20 +2083,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="50.25" customWidth="1"/>
+    <col min="4" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2096,17 +2110,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2115,18 +2132,21 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>40415</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2135,18 +2155,21 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6">
+        <v>40415</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2155,14 +2178,17 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6">
+        <v>40534</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2175,18 +2201,21 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6">
+        <v>40534</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2195,18 +2224,21 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6">
+        <v>40779</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2215,14 +2247,17 @@
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6">
+        <v>40779</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2235,18 +2270,21 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6">
+        <v>40954</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2255,14 +2293,17 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6">
+        <v>40954</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2275,14 +2316,17 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6">
+        <v>41157</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2295,18 +2339,21 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6">
+        <v>41157</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2315,14 +2362,17 @@
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6">
+        <v>41605</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2335,14 +2385,17 @@
       <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7">
+        <v>41605</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2355,14 +2408,17 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6">
+        <v>41297</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2375,14 +2431,17 @@
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6">
+        <v>41297</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2395,18 +2454,21 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6">
+        <v>41311</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2415,14 +2477,17 @@
       <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6">
+        <v>41311</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2435,18 +2500,21 @@
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6">
+        <v>41325</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2455,18 +2523,21 @@
       <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6">
+        <v>41325</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2475,14 +2546,17 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6">
+        <v>41339</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2495,18 +2569,21 @@
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6">
+        <v>41339</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2515,14 +2592,17 @@
       <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6">
+        <v>41367</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2535,14 +2615,17 @@
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7">
+        <v>41325</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2555,14 +2638,15 @@
       <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2575,14 +2659,15 @@
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2595,14 +2680,15 @@
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2615,14 +2701,15 @@
       <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2635,18 +2722,19 @@
       <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2655,14 +2743,15 @@
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2675,14 +2764,15 @@
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2695,14 +2785,15 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2715,18 +2806,19 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2735,14 +2827,15 @@
       <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2755,14 +2848,15 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2775,14 +2869,15 @@
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2795,14 +2890,15 @@
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2815,14 +2911,15 @@
       <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2835,14 +2932,15 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2855,14 +2953,15 @@
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2875,14 +2974,15 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2895,14 +2995,15 @@
       <c r="D41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2915,18 +3016,19 @@
       <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2935,14 +3037,15 @@
       <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2955,14 +3058,15 @@
       <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2975,18 +3079,19 @@
       <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2995,14 +3100,15 @@
       <c r="D46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3015,14 +3121,15 @@
       <c r="D47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3035,14 +3142,15 @@
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3055,14 +3163,15 @@
       <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3075,14 +3184,15 @@
       <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3095,14 +3205,15 @@
       <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3115,18 +3226,19 @@
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3135,18 +3247,19 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="6">
+      <c r="G53">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -3155,14 +3268,15 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G54">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3175,14 +3289,15 @@
       <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3195,14 +3310,15 @@
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3215,18 +3331,19 @@
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58">
         <v>7</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3235,18 +3352,19 @@
       <c r="D58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="6">
+      <c r="G58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3255,14 +3373,15 @@
       <c r="D59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3275,18 +3394,19 @@
       <c r="D60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61">
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3295,14 +3415,15 @@
       <c r="D61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="6">
+      <c r="G61">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3315,14 +3436,15 @@
       <c r="D62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3335,18 +3457,19 @@
       <c r="D63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3355,14 +3478,15 @@
       <c r="D64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="5"/>
+      <c r="F64" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F64" s="6">
+      <c r="G64">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3375,18 +3499,19 @@
       <c r="D65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>7</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3395,14 +3520,15 @@
       <c r="D66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F66" s="6">
+      <c r="G66">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3415,14 +3541,15 @@
       <c r="D67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3435,14 +3562,15 @@
       <c r="D68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3455,14 +3583,15 @@
       <c r="D69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3475,14 +3604,15 @@
       <c r="D70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3495,14 +3625,15 @@
       <c r="D71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3515,18 +3646,19 @@
       <c r="D72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73">
         <v>8</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3535,14 +3667,15 @@
       <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="6">
+      <c r="G73">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3555,14 +3688,15 @@
       <c r="D74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3575,14 +3709,15 @@
       <c r="D75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3595,14 +3730,15 @@
       <c r="D76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3615,14 +3751,15 @@
       <c r="D77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3635,14 +3772,15 @@
       <c r="D78" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3655,14 +3793,15 @@
       <c r="D79" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3675,14 +3814,15 @@
       <c r="D80" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3695,18 +3835,19 @@
       <c r="D81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82">
         <v>9</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3715,14 +3856,15 @@
       <c r="D82" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F82" s="6">
+      <c r="G82">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3735,14 +3877,15 @@
       <c r="D83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3755,18 +3898,19 @@
       <c r="D84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85">
         <v>9</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3775,14 +3919,15 @@
       <c r="D85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="6">
+      <c r="G85">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3795,14 +3940,15 @@
       <c r="D86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3815,14 +3961,15 @@
       <c r="D87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -3835,14 +3982,15 @@
       <c r="D88" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G88" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3855,18 +4003,19 @@
       <c r="D89" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90">
         <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3875,14 +4024,15 @@
       <c r="D90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="6">
+      <c r="G90">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3895,18 +4045,19 @@
       <c r="D91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92">
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3915,18 +4066,19 @@
       <c r="D92" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="6">
+      <c r="G92">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3935,14 +4087,15 @@
       <c r="D93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F93" s="6">
+      <c r="G93">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3955,18 +4108,19 @@
       <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95">
         <v>10</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3975,18 +4129,19 @@
       <c r="D95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F95" s="6">
+      <c r="G95">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96">
         <v>10</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3995,14 +4150,15 @@
       <c r="D96" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F96" s="6">
+      <c r="G96">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4015,14 +4171,15 @@
       <c r="D97" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F97" s="3">
+      <c r="G97" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4035,18 +4192,19 @@
       <c r="D98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99">
         <v>11</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4055,18 +4213,19 @@
       <c r="D99" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F99" s="6">
+      <c r="G99">
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100">
         <v>11</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -4075,18 +4234,19 @@
       <c r="D100" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F100" s="6">
+      <c r="G100">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101">
         <v>11</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -4095,14 +4255,15 @@
       <c r="D101" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F101" s="6">
+      <c r="G101">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4115,14 +4276,15 @@
       <c r="D102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4135,14 +4297,15 @@
       <c r="D103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4155,18 +4318,19 @@
       <c r="D104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105">
         <v>11</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -4175,14 +4339,15 @@
       <c r="D105" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F105" s="6">
+      <c r="G105">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4195,14 +4360,15 @@
       <c r="D106" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4215,14 +4381,15 @@
       <c r="D107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="4"/>
+      <c r="F107" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F107" s="3">
+      <c r="G107" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4235,14 +4402,15 @@
       <c r="D108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4255,14 +4423,15 @@
       <c r="D109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4275,18 +4444,19 @@
       <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="6">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111">
         <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -4295,14 +4465,15 @@
       <c r="D111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F111" s="6">
+      <c r="G111">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4315,14 +4486,15 @@
       <c r="D112" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4335,14 +4507,15 @@
       <c r="D113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4355,14 +4528,15 @@
       <c r="D114" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4375,14 +4549,15 @@
       <c r="D115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4395,14 +4570,15 @@
       <c r="D116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4415,18 +4591,19 @@
       <c r="D117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F117" s="3">
+      <c r="G117" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="6">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118">
         <v>13</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -4435,18 +4612,19 @@
       <c r="D118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F118" s="6">
+      <c r="G118">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="6">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119">
         <v>13</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -4455,10 +4633,11 @@
       <c r="D119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F119" s="6">
+      <c r="G119">
         <v>119</v>
       </c>
     </row>
@@ -4480,18 +4659,18 @@
     <hyperlink ref="C12" r:id="rId13" display="https://ll-fans.jp/data/song/60" xr:uid="{9D4CDE4E-AB96-4519-8D2A-B259D2B66CFB}"/>
     <hyperlink ref="C13" r:id="rId14" display="https://ll-fans.jp/data/song/61" xr:uid="{3A4BA44F-C0A0-45BC-A796-774E4059B949}"/>
     <hyperlink ref="D12:D13" r:id="rId15" display="https://ll-fans.jp/data/artist/1" xr:uid="{1CCE34DD-F562-4A6C-9C7D-37680FD17773}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{BA108A63-A9E4-41C5-AA48-41A7EFB7C1D4}"/>
-    <hyperlink ref="E9" r:id="rId17" xr:uid="{0FA42734-409F-44F8-A3FD-3F8B8126CA4D}"/>
-    <hyperlink ref="E8" r:id="rId18" xr:uid="{F4D920A3-BFAB-4DAD-BAB1-5D3FC461C324}"/>
-    <hyperlink ref="E7" r:id="rId19" xr:uid="{01757FED-A133-4099-B883-D7E2EB9FAA36}"/>
-    <hyperlink ref="E6" r:id="rId20" xr:uid="{E48188E4-318E-4410-AA05-3EB1BEB25949}"/>
-    <hyperlink ref="E5" r:id="rId21" xr:uid="{4274E265-4F4A-4B88-8B69-FA037196BED6}"/>
-    <hyperlink ref="E4" r:id="rId22" xr:uid="{B3DC0BCA-E171-4B56-9150-B72E4474AAAA}"/>
-    <hyperlink ref="E3" r:id="rId23" xr:uid="{AD3B5CB4-C35C-4DD4-8B64-A49597028852}"/>
-    <hyperlink ref="E2" r:id="rId24" xr:uid="{F10BD2D6-B7BA-47A0-B03C-E5AED644B087}"/>
-    <hyperlink ref="E11" r:id="rId25" xr:uid="{45D70F4C-349C-40D4-8DDD-4C3B517C28BB}"/>
-    <hyperlink ref="E12" r:id="rId26" xr:uid="{122FAB5C-2B82-4385-945D-FDE4A094910C}"/>
-    <hyperlink ref="E13" r:id="rId27" xr:uid="{25A53EBC-76BB-4441-9499-AA7DF3ADB957}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{BA108A63-A9E4-41C5-AA48-41A7EFB7C1D4}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{0FA42734-409F-44F8-A3FD-3F8B8126CA4D}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{F4D920A3-BFAB-4DAD-BAB1-5D3FC461C324}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{01757FED-A133-4099-B883-D7E2EB9FAA36}"/>
+    <hyperlink ref="F6" r:id="rId20" xr:uid="{E48188E4-318E-4410-AA05-3EB1BEB25949}"/>
+    <hyperlink ref="F5" r:id="rId21" xr:uid="{4274E265-4F4A-4B88-8B69-FA037196BED6}"/>
+    <hyperlink ref="F4" r:id="rId22" xr:uid="{B3DC0BCA-E171-4B56-9150-B72E4474AAAA}"/>
+    <hyperlink ref="F3" r:id="rId23" xr:uid="{AD3B5CB4-C35C-4DD4-8B64-A49597028852}"/>
+    <hyperlink ref="F2" r:id="rId24" xr:uid="{F10BD2D6-B7BA-47A0-B03C-E5AED644B087}"/>
+    <hyperlink ref="F11" r:id="rId25" xr:uid="{45D70F4C-349C-40D4-8DDD-4C3B517C28BB}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{122FAB5C-2B82-4385-945D-FDE4A094910C}"/>
+    <hyperlink ref="F13" r:id="rId27" xr:uid="{25A53EBC-76BB-4441-9499-AA7DF3ADB957}"/>
     <hyperlink ref="C14" r:id="rId28" display="https://ll-fans.jp/data/song/36" xr:uid="{E71C55E0-FC0F-4AB5-BB6A-993978933E7D}"/>
     <hyperlink ref="C15" r:id="rId29" display="https://ll-fans.jp/data/song/37" xr:uid="{F2AB7134-3B4B-416A-9D98-EAB510F22F73}"/>
     <hyperlink ref="C16" r:id="rId30" display="https://ll-fans.jp/data/song/38" xr:uid="{928A5358-4B6C-46C7-9497-FCD5EEEDAFF8}"/>
@@ -4502,7 +4681,7 @@
     <hyperlink ref="C21" r:id="rId35" display="https://ll-fans.jp/data/song/43" xr:uid="{768A5340-DFCB-4D45-A744-8558A623693D}"/>
     <hyperlink ref="C22" r:id="rId36" display="https://ll-fans.jp/data/song/45" xr:uid="{128518FD-6EF1-4555-AF93-997202775F4D}"/>
     <hyperlink ref="C23" r:id="rId37" display="https://ll-fans.jp/data/song/41" xr:uid="{D7E32308-D787-4D08-A591-E0729424DBAC}"/>
-    <hyperlink ref="E14" r:id="rId38" xr:uid="{0F51F248-DE6E-483B-AB62-8278364C4D56}"/>
+    <hyperlink ref="F14" r:id="rId38" xr:uid="{0F51F248-DE6E-483B-AB62-8278364C4D56}"/>
     <hyperlink ref="D14" r:id="rId39" display="https://ll-fans.jp/data/artist/1" xr:uid="{E7E0EAE1-A841-42E9-AA85-ADC65953C5AE}"/>
     <hyperlink ref="D15:D16" r:id="rId40" display="https://ll-fans.jp/data/artist/1" xr:uid="{A50EEBB5-0699-4A29-B64A-5FDBCAA6575D}"/>
     <hyperlink ref="D17" r:id="rId41" display="https://ll-fans.jp/data/artist/1" xr:uid="{C86347CD-0664-4E28-A802-76A48D778B4F}"/>
@@ -4511,15 +4690,15 @@
     <hyperlink ref="D20" r:id="rId44" display="https://ll-fans.jp/data/artist/23" xr:uid="{E932D7DF-25D0-4328-8955-82903FE08566}"/>
     <hyperlink ref="D21" r:id="rId45" display="https://ll-fans.jp/data/artist/1" xr:uid="{3E898C60-2B9F-436E-B6C6-0620F10C735F}"/>
     <hyperlink ref="D22:D23" r:id="rId46" display="https://ll-fans.jp/data/artist/1" xr:uid="{07B7892D-EFC0-4FCF-850D-76B888529BFC}"/>
-    <hyperlink ref="E15" r:id="rId47" xr:uid="{4F672D3C-D320-458C-A07A-CB82C943109C}"/>
-    <hyperlink ref="E16" r:id="rId48" xr:uid="{65CC04E2-20D1-4CE3-81E7-D9DDCB86BB1F}"/>
-    <hyperlink ref="E17" r:id="rId49" xr:uid="{8FCA24B5-671B-4A62-AC77-FAA3E00F3F82}"/>
-    <hyperlink ref="E18" r:id="rId50" xr:uid="{643B02A2-A9E0-4228-9CB2-A402C8C59DC5}"/>
-    <hyperlink ref="E19" r:id="rId51" xr:uid="{83451ED5-40A3-46DE-9A41-B1E6ABC945D9}"/>
-    <hyperlink ref="E20" r:id="rId52" xr:uid="{F8DBF202-81DC-4A7F-9808-6A3935CB2E2D}"/>
-    <hyperlink ref="E21" r:id="rId53" xr:uid="{4B0C586B-5A26-43E8-965E-F494EF324B91}"/>
-    <hyperlink ref="E22" r:id="rId54" xr:uid="{8618529A-ECCD-4489-817E-072FBF17C5F9}"/>
-    <hyperlink ref="E23" r:id="rId55" xr:uid="{C84BC13D-6C07-429A-A07C-AA25FCE1E256}"/>
+    <hyperlink ref="F15" r:id="rId47" xr:uid="{4F672D3C-D320-458C-A07A-CB82C943109C}"/>
+    <hyperlink ref="F16" r:id="rId48" xr:uid="{65CC04E2-20D1-4CE3-81E7-D9DDCB86BB1F}"/>
+    <hyperlink ref="F17" r:id="rId49" xr:uid="{8FCA24B5-671B-4A62-AC77-FAA3E00F3F82}"/>
+    <hyperlink ref="F18" r:id="rId50" xr:uid="{643B02A2-A9E0-4228-9CB2-A402C8C59DC5}"/>
+    <hyperlink ref="F19" r:id="rId51" xr:uid="{83451ED5-40A3-46DE-9A41-B1E6ABC945D9}"/>
+    <hyperlink ref="F20" r:id="rId52" xr:uid="{F8DBF202-81DC-4A7F-9808-6A3935CB2E2D}"/>
+    <hyperlink ref="F21" r:id="rId53" xr:uid="{4B0C586B-5A26-43E8-965E-F494EF324B91}"/>
+    <hyperlink ref="F22" r:id="rId54" xr:uid="{8618529A-ECCD-4489-817E-072FBF17C5F9}"/>
+    <hyperlink ref="F23" r:id="rId55" xr:uid="{C84BC13D-6C07-429A-A07C-AA25FCE1E256}"/>
     <hyperlink ref="C24" r:id="rId56" display="https://ll-fans.jp/data/song/44" xr:uid="{729E1BBE-AFE4-49FC-8781-FB50EE270FFD}"/>
     <hyperlink ref="C25" r:id="rId57" display="https://ll-fans.jp/data/song/47" xr:uid="{C130951F-6FD3-472E-9B23-387CA28E3520}"/>
     <hyperlink ref="C26" r:id="rId58" display="https://ll-fans.jp/data/song/48" xr:uid="{8F5B5F58-7E8F-4458-9A51-9BC2450B66E4}"/>
@@ -4534,13 +4713,13 @@
     <hyperlink ref="D27" r:id="rId67" display="https://ll-fans.jp/data/artist/26" xr:uid="{BE1BB279-C2CF-4B22-93DA-1ED2B4647095}"/>
     <hyperlink ref="D28" r:id="rId68" display="https://ll-fans.jp/data/artist/14" xr:uid="{F3ADD02D-2830-4853-91D8-211D786BE4B9}"/>
     <hyperlink ref="D29" r:id="rId69" display="https://ll-fans.jp/data/artist/27" xr:uid="{17B7CCDA-C392-4C99-87CF-7D7D906C07E6}"/>
-    <hyperlink ref="E24" r:id="rId70" xr:uid="{B4831893-BFFD-4821-8FF9-37CE35AA1112}"/>
-    <hyperlink ref="E25" r:id="rId71" xr:uid="{12949BE0-AC38-4AA2-A5F6-03AB3D9451A7}"/>
-    <hyperlink ref="E26" r:id="rId72" xr:uid="{D1A9C247-5A3D-4DDF-A1DE-64AA785C3559}"/>
-    <hyperlink ref="E27" r:id="rId73" xr:uid="{85D106FE-23B7-4A9A-ABE4-E74BE744A132}"/>
-    <hyperlink ref="E28" r:id="rId74" xr:uid="{AD84A904-B85C-4204-A7F7-070449C58803}"/>
-    <hyperlink ref="E29" r:id="rId75" xr:uid="{A8FCE49B-ECC6-4376-9F4D-75843B31E2CE}"/>
-    <hyperlink ref="E30" r:id="rId76" xr:uid="{481B98D0-4F87-420D-9C47-751838F34B40}"/>
+    <hyperlink ref="F24" r:id="rId70" xr:uid="{B4831893-BFFD-4821-8FF9-37CE35AA1112}"/>
+    <hyperlink ref="F25" r:id="rId71" xr:uid="{12949BE0-AC38-4AA2-A5F6-03AB3D9451A7}"/>
+    <hyperlink ref="F26" r:id="rId72" xr:uid="{D1A9C247-5A3D-4DDF-A1DE-64AA785C3559}"/>
+    <hyperlink ref="F27" r:id="rId73" xr:uid="{85D106FE-23B7-4A9A-ABE4-E74BE744A132}"/>
+    <hyperlink ref="F28" r:id="rId74" xr:uid="{AD84A904-B85C-4204-A7F7-070449C58803}"/>
+    <hyperlink ref="F29" r:id="rId75" xr:uid="{A8FCE49B-ECC6-4376-9F4D-75843B31E2CE}"/>
+    <hyperlink ref="F30" r:id="rId76" xr:uid="{481B98D0-4F87-420D-9C47-751838F34B40}"/>
     <hyperlink ref="C31" r:id="rId77" display="https://ll-fans.jp/data/song/65" xr:uid="{EC25314C-0C0D-418A-A6BE-4E661BCBEFD9}"/>
     <hyperlink ref="C32" r:id="rId78" display="https://ll-fans.jp/data/song/66" xr:uid="{EAC5315E-541B-4884-BC4E-551D39D57325}"/>
     <hyperlink ref="C33" r:id="rId79" display="https://ll-fans.jp/data/song/67" xr:uid="{C6089087-DDCD-4ED0-BFA3-D49B8E766267}"/>
@@ -4553,16 +4732,16 @@
     <hyperlink ref="C40" r:id="rId86" display="https://ll-fans.jp/data/song/75" xr:uid="{9F517D28-C702-4336-8D39-A471D5F508BF}"/>
     <hyperlink ref="D31" r:id="rId87" display="https://ll-fans.jp/data/artist/1" xr:uid="{906CD6D9-B0D0-433C-A2D7-2E514257F6DA}"/>
     <hyperlink ref="D37" r:id="rId88" display="https://ll-fans.jp/data/artist/24" xr:uid="{A07196DE-2B1C-4C81-B7B9-00B9042B6EC6}"/>
-    <hyperlink ref="E31" r:id="rId89" xr:uid="{FC953035-7E56-4047-AF0C-78035DAFE647}"/>
-    <hyperlink ref="E32" r:id="rId90" xr:uid="{8160C150-A0EC-4A3B-A7B1-7D17F9905182}"/>
-    <hyperlink ref="E33" r:id="rId91" xr:uid="{DBDCA80F-D822-431F-8006-3DCE1BCED8D1}"/>
-    <hyperlink ref="E34" r:id="rId92" xr:uid="{428EA283-783A-447A-9EE8-0D881D8C9757}"/>
-    <hyperlink ref="E35" r:id="rId93" xr:uid="{02FE15E6-EBEB-4A69-84F4-938EC81184F8}"/>
-    <hyperlink ref="E36" r:id="rId94" xr:uid="{E944423A-D704-49F3-909E-F93F1018164A}"/>
-    <hyperlink ref="E37" r:id="rId95" xr:uid="{CE5D9AD3-13EC-4CA1-81AA-CFBDA92C44FE}"/>
-    <hyperlink ref="E38" r:id="rId96" xr:uid="{75F89503-25F9-49CB-8653-309CD0B16930}"/>
-    <hyperlink ref="E39" r:id="rId97" xr:uid="{3AB089BC-8369-4ED7-BAE0-610870971E7E}"/>
-    <hyperlink ref="E40" r:id="rId98" xr:uid="{E1155F69-332A-4A8F-BB4B-031DD09BE3CD}"/>
+    <hyperlink ref="F31" r:id="rId89" xr:uid="{FC953035-7E56-4047-AF0C-78035DAFE647}"/>
+    <hyperlink ref="F32" r:id="rId90" xr:uid="{8160C150-A0EC-4A3B-A7B1-7D17F9905182}"/>
+    <hyperlink ref="F33" r:id="rId91" xr:uid="{DBDCA80F-D822-431F-8006-3DCE1BCED8D1}"/>
+    <hyperlink ref="F34" r:id="rId92" xr:uid="{428EA283-783A-447A-9EE8-0D881D8C9757}"/>
+    <hyperlink ref="F35" r:id="rId93" xr:uid="{02FE15E6-EBEB-4A69-84F4-938EC81184F8}"/>
+    <hyperlink ref="F36" r:id="rId94" xr:uid="{E944423A-D704-49F3-909E-F93F1018164A}"/>
+    <hyperlink ref="F37" r:id="rId95" xr:uid="{CE5D9AD3-13EC-4CA1-81AA-CFBDA92C44FE}"/>
+    <hyperlink ref="F38" r:id="rId96" xr:uid="{75F89503-25F9-49CB-8653-309CD0B16930}"/>
+    <hyperlink ref="F39" r:id="rId97" xr:uid="{3AB089BC-8369-4ED7-BAE0-610870971E7E}"/>
+    <hyperlink ref="F40" r:id="rId98" xr:uid="{E1155F69-332A-4A8F-BB4B-031DD09BE3CD}"/>
     <hyperlink ref="C41" r:id="rId99" display="https://ll-fans.jp/data/song/73" xr:uid="{9C8E6616-388A-4F77-A7CB-63E72E1E5ADA}"/>
     <hyperlink ref="C42" r:id="rId100" display="https://ll-fans.jp/data/song/76" xr:uid="{6226979A-AA1B-462D-94C1-01D4BC96A857}"/>
     <hyperlink ref="C43" r:id="rId101" display="https://ll-fans.jp/data/song/79" xr:uid="{D6BC77E8-773D-4970-83A6-205D4CB93595}"/>
@@ -4577,13 +4756,13 @@
     <hyperlink ref="D45" r:id="rId110" display="https://ll-fans.jp/data/artist/12" xr:uid="{304056C4-F852-4928-AE03-3670D107E4A7}"/>
     <hyperlink ref="D46" r:id="rId111" display="https://ll-fans.jp/data/artist/16" xr:uid="{F392E83D-9C26-4E61-B767-107D990533E6}"/>
     <hyperlink ref="D47" r:id="rId112" display="https://ll-fans.jp/data/artist/1" xr:uid="{5DC53A84-27BC-476D-BA60-DD6D43D4A07F}"/>
-    <hyperlink ref="E41" r:id="rId113" xr:uid="{1CE24CBD-5B32-4CC5-A232-E0E2C49472FB}"/>
-    <hyperlink ref="E42" r:id="rId114" xr:uid="{F7A234EC-F788-4A0F-9FB5-A6FF347ECD38}"/>
-    <hyperlink ref="E43" r:id="rId115" xr:uid="{4AB8E855-79A0-49EA-84A5-12FD557AB063}"/>
-    <hyperlink ref="E44" r:id="rId116" xr:uid="{926A43F1-F0FD-471E-8FB2-C4DD62A0ED2C}"/>
-    <hyperlink ref="E45" r:id="rId117" xr:uid="{560F48B4-98FC-4EAD-BFBF-D49DA6D770F5}"/>
-    <hyperlink ref="E46" r:id="rId118" xr:uid="{194B7DB7-2492-4C3B-85F7-2A6F22544FED}"/>
-    <hyperlink ref="E47" r:id="rId119" xr:uid="{9233AEE4-D533-486D-9DB7-5212AF4A8C54}"/>
+    <hyperlink ref="F41" r:id="rId113" xr:uid="{1CE24CBD-5B32-4CC5-A232-E0E2C49472FB}"/>
+    <hyperlink ref="F42" r:id="rId114" xr:uid="{F7A234EC-F788-4A0F-9FB5-A6FF347ECD38}"/>
+    <hyperlink ref="F43" r:id="rId115" xr:uid="{4AB8E855-79A0-49EA-84A5-12FD557AB063}"/>
+    <hyperlink ref="F44" r:id="rId116" xr:uid="{926A43F1-F0FD-471E-8FB2-C4DD62A0ED2C}"/>
+    <hyperlink ref="F45" r:id="rId117" xr:uid="{560F48B4-98FC-4EAD-BFBF-D49DA6D770F5}"/>
+    <hyperlink ref="F46" r:id="rId118" xr:uid="{194B7DB7-2492-4C3B-85F7-2A6F22544FED}"/>
+    <hyperlink ref="F47" r:id="rId119" xr:uid="{9233AEE4-D533-486D-9DB7-5212AF4A8C54}"/>
     <hyperlink ref="C48" r:id="rId120" display="https://ll-fans.jp/data/song/62" xr:uid="{6AD60908-2834-469E-B17B-B1C2F988D63A}"/>
     <hyperlink ref="C49" r:id="rId121" display="https://ll-fans.jp/data/song/63" xr:uid="{92990CA5-BC09-404E-A8A0-A30D0DB3125D}"/>
     <hyperlink ref="C50" r:id="rId122" display="https://ll-fans.jp/data/song/81" xr:uid="{610CB8EC-7BCC-480C-8369-A2E806BC6D4E}"/>
@@ -4596,16 +4775,16 @@
     <hyperlink ref="C57" r:id="rId129" display="https://ll-fans.jp/data/song/95" xr:uid="{1509CB54-CD1F-4FFD-BC8C-689964435826}"/>
     <hyperlink ref="D48" r:id="rId130" display="https://ll-fans.jp/data/artist/1" xr:uid="{2736B0AF-E8C9-498C-979A-876CC0C28662}"/>
     <hyperlink ref="D49:D57" r:id="rId131" display="https://ll-fans.jp/data/artist/1" xr:uid="{21937030-34DB-44D1-BC97-666105742CF4}"/>
-    <hyperlink ref="E48" r:id="rId132" xr:uid="{DAEC9F86-2D7D-41F1-A9E8-B6A4966939F7}"/>
-    <hyperlink ref="E49" r:id="rId133" xr:uid="{76874757-1277-4440-BAAC-72BDFCA38D80}"/>
-    <hyperlink ref="E50" r:id="rId134" xr:uid="{563AF814-7F94-4472-A4CA-10FF158F5532}"/>
-    <hyperlink ref="E51" r:id="rId135" xr:uid="{2266E719-928A-4FB3-B2FE-754ABD744644}"/>
-    <hyperlink ref="E52" r:id="rId136" xr:uid="{F52A4C64-A400-40CF-A05A-AB1E90BA8A5F}"/>
-    <hyperlink ref="E53" r:id="rId137" xr:uid="{E1F38092-2499-4A50-9CED-2FA133189AC8}"/>
-    <hyperlink ref="E54" r:id="rId138" xr:uid="{925B2957-BAC5-4D19-8C60-A276E3AF6974}"/>
-    <hyperlink ref="E55" r:id="rId139" xr:uid="{83FCCCE3-6E28-482B-BD8F-F08AE63B7F99}"/>
-    <hyperlink ref="E56" r:id="rId140" xr:uid="{FE1D8439-C4EC-4E1D-8606-0D7A667A44E5}"/>
-    <hyperlink ref="E57" r:id="rId141" xr:uid="{6E5F3263-EE8C-44BA-B75E-87F261922BEE}"/>
+    <hyperlink ref="F48" r:id="rId132" xr:uid="{DAEC9F86-2D7D-41F1-A9E8-B6A4966939F7}"/>
+    <hyperlink ref="F49" r:id="rId133" xr:uid="{76874757-1277-4440-BAAC-72BDFCA38D80}"/>
+    <hyperlink ref="F50" r:id="rId134" xr:uid="{563AF814-7F94-4472-A4CA-10FF158F5532}"/>
+    <hyperlink ref="F51" r:id="rId135" xr:uid="{2266E719-928A-4FB3-B2FE-754ABD744644}"/>
+    <hyperlink ref="F52" r:id="rId136" xr:uid="{F52A4C64-A400-40CF-A05A-AB1E90BA8A5F}"/>
+    <hyperlink ref="F53" r:id="rId137" xr:uid="{E1F38092-2499-4A50-9CED-2FA133189AC8}"/>
+    <hyperlink ref="F54" r:id="rId138" xr:uid="{925B2957-BAC5-4D19-8C60-A276E3AF6974}"/>
+    <hyperlink ref="F55" r:id="rId139" xr:uid="{83FCCCE3-6E28-482B-BD8F-F08AE63B7F99}"/>
+    <hyperlink ref="F56" r:id="rId140" xr:uid="{FE1D8439-C4EC-4E1D-8606-0D7A667A44E5}"/>
+    <hyperlink ref="F57" r:id="rId141" xr:uid="{6E5F3263-EE8C-44BA-B75E-87F261922BEE}"/>
     <hyperlink ref="C58" r:id="rId142" display="https://ll-fans.jp/data/song/5" xr:uid="{63B210B5-7BF4-48B8-B3CC-84C7A4106399}"/>
     <hyperlink ref="C59" r:id="rId143" display="https://ll-fans.jp/data/song/6" xr:uid="{140DBABF-C859-4AC9-A087-0F5C7843BCC7}"/>
     <hyperlink ref="C60" r:id="rId144" display="https://ll-fans.jp/data/song/55" xr:uid="{2AFC7C6F-3FE7-481A-AD60-1930D68EF4BE}"/>
@@ -4619,17 +4798,17 @@
     <hyperlink ref="C68" r:id="rId152" display="https://ll-fans.jp/data/song/98" xr:uid="{CB045905-BE6C-4708-B73B-646173318F57}"/>
     <hyperlink ref="D58" r:id="rId153" display="https://ll-fans.jp/data/artist/2" xr:uid="{4C77F035-5A89-4324-8E77-0D8969B66246}"/>
     <hyperlink ref="D59:D68" r:id="rId154" display="https://ll-fans.jp/data/artist/2" xr:uid="{6BC0F8FA-35F5-4523-8FDB-3C7C4C8FDFCB}"/>
-    <hyperlink ref="E58" r:id="rId155" xr:uid="{22F82764-58CE-4E91-95A5-2323802123E4}"/>
-    <hyperlink ref="E59" r:id="rId156" xr:uid="{D8DD5FAB-D1EE-44F7-9528-924FF93EB7D3}"/>
-    <hyperlink ref="E60" r:id="rId157" xr:uid="{7D9C9537-2407-4E7A-9BBB-E700969C4758}"/>
-    <hyperlink ref="E61" r:id="rId158" xr:uid="{DE4C6B5A-C449-4E2C-8CA6-E226008EA811}"/>
-    <hyperlink ref="E62" r:id="rId159" xr:uid="{6A217282-8C26-4641-B133-B3BFE6AEF6A0}"/>
-    <hyperlink ref="E63" r:id="rId160" xr:uid="{E8E35E09-F675-4731-8512-133A16038B43}"/>
-    <hyperlink ref="E64" r:id="rId161" xr:uid="{BB56ED1A-CEB6-478C-A607-9EFBED6D94DF}"/>
-    <hyperlink ref="E65" r:id="rId162" xr:uid="{F677E8AA-983F-4FD9-8BC4-2B1266715786}"/>
-    <hyperlink ref="E66" r:id="rId163" xr:uid="{62F9C210-FDA5-40FE-A1C3-06E7E28A5878}"/>
-    <hyperlink ref="E67" r:id="rId164" xr:uid="{DC258907-F98E-4C13-9EAE-9BA03CD32A28}"/>
-    <hyperlink ref="E68" r:id="rId165" xr:uid="{F97C3B33-D5E7-4079-B52C-F83AAC78C82F}"/>
+    <hyperlink ref="F58" r:id="rId155" xr:uid="{22F82764-58CE-4E91-95A5-2323802123E4}"/>
+    <hyperlink ref="F59" r:id="rId156" xr:uid="{D8DD5FAB-D1EE-44F7-9528-924FF93EB7D3}"/>
+    <hyperlink ref="F60" r:id="rId157" xr:uid="{7D9C9537-2407-4E7A-9BBB-E700969C4758}"/>
+    <hyperlink ref="F61" r:id="rId158" xr:uid="{DE4C6B5A-C449-4E2C-8CA6-E226008EA811}"/>
+    <hyperlink ref="F62" r:id="rId159" xr:uid="{6A217282-8C26-4641-B133-B3BFE6AEF6A0}"/>
+    <hyperlink ref="F63" r:id="rId160" xr:uid="{E8E35E09-F675-4731-8512-133A16038B43}"/>
+    <hyperlink ref="F64" r:id="rId161" xr:uid="{BB56ED1A-CEB6-478C-A607-9EFBED6D94DF}"/>
+    <hyperlink ref="F65" r:id="rId162" xr:uid="{F677E8AA-983F-4FD9-8BC4-2B1266715786}"/>
+    <hyperlink ref="F66" r:id="rId163" xr:uid="{62F9C210-FDA5-40FE-A1C3-06E7E28A5878}"/>
+    <hyperlink ref="F67" r:id="rId164" xr:uid="{DC258907-F98E-4C13-9EAE-9BA03CD32A28}"/>
+    <hyperlink ref="F68" r:id="rId165" xr:uid="{F97C3B33-D5E7-4079-B52C-F83AAC78C82F}"/>
     <hyperlink ref="C69" r:id="rId166" display="https://ll-fans.jp/data/song/7" xr:uid="{AFE12E91-3989-4097-9A85-840CECB9C21B}"/>
     <hyperlink ref="C70" r:id="rId167" display="https://ll-fans.jp/data/song/8" xr:uid="{5E9AA33E-61BC-4491-9882-74BE385F711F}"/>
     <hyperlink ref="C71" r:id="rId168" display="https://ll-fans.jp/data/song/52" xr:uid="{91E5C239-E873-4D6C-9566-D3B40CF1B42C}"/>
@@ -4642,16 +4821,16 @@
     <hyperlink ref="C78" r:id="rId175" display="https://ll-fans.jp/data/song/99" xr:uid="{A0401594-421A-4CFB-B164-76EC75CFD569}"/>
     <hyperlink ref="D69" r:id="rId176" display="https://ll-fans.jp/data/artist/4" xr:uid="{62C6505F-0CC7-4541-83A0-91BF32FCC5A9}"/>
     <hyperlink ref="D70:D78" r:id="rId177" display="https://ll-fans.jp/data/artist/4" xr:uid="{3233AEB3-F2B2-4F8F-8AF0-3C566CB6D564}"/>
-    <hyperlink ref="E69" r:id="rId178" xr:uid="{2A9F5DDF-7799-4818-8B11-FB51E9AEBF19}"/>
-    <hyperlink ref="E70" r:id="rId179" xr:uid="{3C394F1C-6BA8-4D92-B3D5-338BA6FC8C0B}"/>
-    <hyperlink ref="E71" r:id="rId180" xr:uid="{F028DC34-7630-4E22-9700-E25812281872}"/>
-    <hyperlink ref="E72" r:id="rId181" xr:uid="{1E7E7C13-1247-4222-B12B-8D3A20085F43}"/>
-    <hyperlink ref="E73" r:id="rId182" xr:uid="{BD951338-A7CB-48AF-B199-13ED0382F4FD}"/>
-    <hyperlink ref="E74" r:id="rId183" xr:uid="{8302BCF7-DA1A-4E05-808E-54018FA327C6}"/>
-    <hyperlink ref="E75" r:id="rId184" xr:uid="{568EF1D2-2CC3-4C12-A7F7-80245C7DCEAF}"/>
-    <hyperlink ref="E76" r:id="rId185" xr:uid="{FD55A634-442C-4F2E-941E-F87A41244290}"/>
-    <hyperlink ref="E77" r:id="rId186" xr:uid="{FACA6EAC-A2C8-4FCA-AE9F-8DFDED6A79E1}"/>
-    <hyperlink ref="E78" r:id="rId187" xr:uid="{F627381B-7107-44F6-A2D1-75049F83BB07}"/>
+    <hyperlink ref="F69" r:id="rId178" xr:uid="{2A9F5DDF-7799-4818-8B11-FB51E9AEBF19}"/>
+    <hyperlink ref="F70" r:id="rId179" xr:uid="{3C394F1C-6BA8-4D92-B3D5-338BA6FC8C0B}"/>
+    <hyperlink ref="F71" r:id="rId180" xr:uid="{F028DC34-7630-4E22-9700-E25812281872}"/>
+    <hyperlink ref="F72" r:id="rId181" xr:uid="{1E7E7C13-1247-4222-B12B-8D3A20085F43}"/>
+    <hyperlink ref="F73" r:id="rId182" xr:uid="{BD951338-A7CB-48AF-B199-13ED0382F4FD}"/>
+    <hyperlink ref="F74" r:id="rId183" xr:uid="{8302BCF7-DA1A-4E05-808E-54018FA327C6}"/>
+    <hyperlink ref="F75" r:id="rId184" xr:uid="{568EF1D2-2CC3-4C12-A7F7-80245C7DCEAF}"/>
+    <hyperlink ref="F76" r:id="rId185" xr:uid="{FD55A634-442C-4F2E-941E-F87A41244290}"/>
+    <hyperlink ref="F77" r:id="rId186" xr:uid="{FACA6EAC-A2C8-4FCA-AE9F-8DFDED6A79E1}"/>
+    <hyperlink ref="F78" r:id="rId187" xr:uid="{F627381B-7107-44F6-A2D1-75049F83BB07}"/>
     <hyperlink ref="C79" r:id="rId188" display="https://ll-fans.jp/data/song/9" xr:uid="{9F2E51BA-9F0C-41DC-832C-E69C550F8761}"/>
     <hyperlink ref="C80" r:id="rId189" display="https://ll-fans.jp/data/song/10" xr:uid="{290C7868-8D8D-4D5F-AFB9-1E0242F9DFC9}"/>
     <hyperlink ref="C81" r:id="rId190" display="https://ll-fans.jp/data/song/50" xr:uid="{C00B98E1-64F6-495B-A149-1D7F86765360}"/>
@@ -4664,16 +4843,16 @@
     <hyperlink ref="C88" r:id="rId197" display="https://ll-fans.jp/data/song/100" xr:uid="{A295C462-00C2-44AD-9F0D-8798C7A9CFDE}"/>
     <hyperlink ref="D79" r:id="rId198" display="https://ll-fans.jp/data/artist/3" xr:uid="{8C58ECD0-BD63-47B5-8C85-6958FE3C4AB1}"/>
     <hyperlink ref="D80:D88" r:id="rId199" display="https://ll-fans.jp/data/artist/3" xr:uid="{E436436A-F8AE-4FD4-A5C3-109E882CADBC}"/>
-    <hyperlink ref="E79" r:id="rId200" xr:uid="{98696259-A681-4E73-99C0-9638AEE5B42F}"/>
-    <hyperlink ref="E80" r:id="rId201" xr:uid="{CC868F59-3CBB-4C67-91A3-17FE6E0CE11D}"/>
-    <hyperlink ref="E81" r:id="rId202" xr:uid="{5AAEB98A-5705-4C4D-9B99-0F667CAB7C9E}"/>
-    <hyperlink ref="E82" r:id="rId203" xr:uid="{156FA1B2-A941-47E5-ABCE-963ED24C9A49}"/>
-    <hyperlink ref="E83" r:id="rId204" xr:uid="{3CBC2B81-D190-4757-BEB5-1FDC89F97F56}"/>
-    <hyperlink ref="E84" r:id="rId205" xr:uid="{E030F41A-3337-4F71-8712-0CCE6EB5EA19}"/>
-    <hyperlink ref="E85" r:id="rId206" xr:uid="{1B0B40DC-A0D0-4D79-9415-FE7B8E6AD43B}"/>
-    <hyperlink ref="E86" r:id="rId207" xr:uid="{E5AA2178-7506-4CD4-9DB9-FFB8E9F09B00}"/>
-    <hyperlink ref="E87" r:id="rId208" xr:uid="{5723620A-B2E7-447D-AFF5-A4E989FE1F61}"/>
-    <hyperlink ref="E88" r:id="rId209" xr:uid="{7E257D83-EB57-4429-B6AC-EEDB401B6D35}"/>
+    <hyperlink ref="F79" r:id="rId200" xr:uid="{98696259-A681-4E73-99C0-9638AEE5B42F}"/>
+    <hyperlink ref="F80" r:id="rId201" xr:uid="{CC868F59-3CBB-4C67-91A3-17FE6E0CE11D}"/>
+    <hyperlink ref="F81" r:id="rId202" xr:uid="{5AAEB98A-5705-4C4D-9B99-0F667CAB7C9E}"/>
+    <hyperlink ref="F82" r:id="rId203" xr:uid="{156FA1B2-A941-47E5-ABCE-963ED24C9A49}"/>
+    <hyperlink ref="F83" r:id="rId204" xr:uid="{3CBC2B81-D190-4757-BEB5-1FDC89F97F56}"/>
+    <hyperlink ref="F84" r:id="rId205" xr:uid="{E030F41A-3337-4F71-8712-0CCE6EB5EA19}"/>
+    <hyperlink ref="F85" r:id="rId206" xr:uid="{1B0B40DC-A0D0-4D79-9415-FE7B8E6AD43B}"/>
+    <hyperlink ref="F86" r:id="rId207" xr:uid="{E5AA2178-7506-4CD4-9DB9-FFB8E9F09B00}"/>
+    <hyperlink ref="F87" r:id="rId208" xr:uid="{5723620A-B2E7-447D-AFF5-A4E989FE1F61}"/>
+    <hyperlink ref="F88" r:id="rId209" xr:uid="{7E257D83-EB57-4429-B6AC-EEDB401B6D35}"/>
     <hyperlink ref="C89" r:id="rId210" display="https://ll-fans.jp/data/song/19" xr:uid="{605E00D9-8CC0-44C1-AC74-CB04629197C3}"/>
     <hyperlink ref="C90" r:id="rId211" display="https://ll-fans.jp/data/song/20" xr:uid="{5C4119E5-7A01-4E02-A153-8DC3BC4C7C54}"/>
     <hyperlink ref="C91" r:id="rId212" display="https://ll-fans.jp/data/song/21" xr:uid="{57FE2572-EC17-4DBA-9D11-86C3503DA85D}"/>
@@ -4692,15 +4871,15 @@
     <hyperlink ref="D95" r:id="rId225" display="https://ll-fans.jp/data/artist/16" xr:uid="{B076F709-D836-4F79-B5F9-FDF4902EFE04}"/>
     <hyperlink ref="D96" r:id="rId226" display="https://ll-fans.jp/data/artist/8" xr:uid="{E2D2661F-FB7C-47B8-B349-ED5D2AA02666}"/>
     <hyperlink ref="D97" r:id="rId227" display="https://ll-fans.jp/data/artist/13" xr:uid="{EDEC8F70-12F1-47EF-B369-B9A24344F250}"/>
-    <hyperlink ref="E89" r:id="rId228" xr:uid="{F0CF8A64-2745-4556-A2AB-5377C50DBF80}"/>
-    <hyperlink ref="E90" r:id="rId229" xr:uid="{F2CDE8BF-2184-4F90-B12E-3CF36FA1BAD9}"/>
-    <hyperlink ref="E91" r:id="rId230" xr:uid="{AAAAAB40-E99F-4F95-8A22-2220C09C870A}"/>
-    <hyperlink ref="E92" r:id="rId231" xr:uid="{DB9E80B1-246A-436C-8A74-DC6C2B0210FD}"/>
-    <hyperlink ref="E93" r:id="rId232" xr:uid="{586ED6CC-62AA-4ADD-BCF2-EB47F3C269F7}"/>
-    <hyperlink ref="E94" r:id="rId233" xr:uid="{43EDEA9A-986F-4BDC-8CC5-C5108A17E225}"/>
-    <hyperlink ref="E95" r:id="rId234" xr:uid="{8D496239-8060-4202-AC24-F9DDD6CFB37D}"/>
-    <hyperlink ref="E96" r:id="rId235" xr:uid="{E79ED99C-E920-4D59-A60F-4B74AB1BECB0}"/>
-    <hyperlink ref="E97" r:id="rId236" xr:uid="{499DF689-5867-49AF-AF55-35744F228D4D}"/>
+    <hyperlink ref="F89" r:id="rId228" xr:uid="{F0CF8A64-2745-4556-A2AB-5377C50DBF80}"/>
+    <hyperlink ref="F90" r:id="rId229" xr:uid="{F2CDE8BF-2184-4F90-B12E-3CF36FA1BAD9}"/>
+    <hyperlink ref="F91" r:id="rId230" xr:uid="{AAAAAB40-E99F-4F95-8A22-2220C09C870A}"/>
+    <hyperlink ref="F92" r:id="rId231" xr:uid="{DB9E80B1-246A-436C-8A74-DC6C2B0210FD}"/>
+    <hyperlink ref="F93" r:id="rId232" xr:uid="{586ED6CC-62AA-4ADD-BCF2-EB47F3C269F7}"/>
+    <hyperlink ref="F94" r:id="rId233" xr:uid="{43EDEA9A-986F-4BDC-8CC5-C5108A17E225}"/>
+    <hyperlink ref="F95" r:id="rId234" xr:uid="{8D496239-8060-4202-AC24-F9DDD6CFB37D}"/>
+    <hyperlink ref="F96" r:id="rId235" xr:uid="{E79ED99C-E920-4D59-A60F-4B74AB1BECB0}"/>
+    <hyperlink ref="F97" r:id="rId236" xr:uid="{499DF689-5867-49AF-AF55-35744F228D4D}"/>
     <hyperlink ref="C98" r:id="rId237" display="https://ll-fans.jp/data/song/28" xr:uid="{71EA047D-090F-4BE8-A5CC-E85FEB7A9B5F}"/>
     <hyperlink ref="C99" r:id="rId238" display="https://ll-fans.jp/data/song/29" xr:uid="{6B18A1F7-1850-4005-8022-05E5F5928F83}"/>
     <hyperlink ref="C100" r:id="rId239" display="https://ll-fans.jp/data/song/30" xr:uid="{C47ECE8D-5B5B-4C6C-A18F-8D6E8DF7E055}"/>
@@ -4721,16 +4900,16 @@
     <hyperlink ref="D105" r:id="rId254" display="https://ll-fans.jp/data/artist/9" xr:uid="{9FA30CB7-1B58-4334-AC5C-667FF31C5569}"/>
     <hyperlink ref="D106" r:id="rId255" display="https://ll-fans.jp/data/artist/5" xr:uid="{7998BC8E-9215-4AF4-9B08-FCF088066BBA}"/>
     <hyperlink ref="D107" r:id="rId256" display="https://ll-fans.jp/data/artist/5" xr:uid="{11A9666A-3E4D-41C0-BB8E-83852F6BE2DA}"/>
-    <hyperlink ref="E98" r:id="rId257" xr:uid="{11CD09F3-D275-485E-B722-7D7B599072C5}"/>
-    <hyperlink ref="E99" r:id="rId258" xr:uid="{BC7189BA-6C49-442F-B7AF-6F27DA41FD1B}"/>
-    <hyperlink ref="E100" r:id="rId259" xr:uid="{D3958F87-8A3C-4B44-BAC8-99A124B351A2}"/>
-    <hyperlink ref="E101" r:id="rId260" xr:uid="{9FF7234E-08A5-44FC-8AB5-9434224DB809}"/>
-    <hyperlink ref="E102" r:id="rId261" xr:uid="{2A1C684E-6BF7-4065-9BDF-E49BF11F45E8}"/>
-    <hyperlink ref="E103" r:id="rId262" xr:uid="{013507B7-EB54-4EC4-B499-D84C01AAB4EA}"/>
-    <hyperlink ref="E104" r:id="rId263" xr:uid="{D331B744-667C-4D9E-9896-68BC53D0D465}"/>
-    <hyperlink ref="E105" r:id="rId264" xr:uid="{6BE5753A-B760-4121-A40A-3363F05804BE}"/>
-    <hyperlink ref="E106" r:id="rId265" xr:uid="{9EBD13D4-8BA8-47BE-9EE0-6DFD5EAEFAD7}"/>
-    <hyperlink ref="E107" r:id="rId266" xr:uid="{4BE6F7BD-458D-4BD5-885C-E1997A64487E}"/>
+    <hyperlink ref="F98" r:id="rId257" xr:uid="{11CD09F3-D275-485E-B722-7D7B599072C5}"/>
+    <hyperlink ref="F99" r:id="rId258" xr:uid="{BC7189BA-6C49-442F-B7AF-6F27DA41FD1B}"/>
+    <hyperlink ref="F100" r:id="rId259" xr:uid="{D3958F87-8A3C-4B44-BAC8-99A124B351A2}"/>
+    <hyperlink ref="F101" r:id="rId260" xr:uid="{9FF7234E-08A5-44FC-8AB5-9434224DB809}"/>
+    <hyperlink ref="F102" r:id="rId261" xr:uid="{2A1C684E-6BF7-4065-9BDF-E49BF11F45E8}"/>
+    <hyperlink ref="F103" r:id="rId262" xr:uid="{013507B7-EB54-4EC4-B499-D84C01AAB4EA}"/>
+    <hyperlink ref="F104" r:id="rId263" xr:uid="{D331B744-667C-4D9E-9896-68BC53D0D465}"/>
+    <hyperlink ref="F105" r:id="rId264" xr:uid="{6BE5753A-B760-4121-A40A-3363F05804BE}"/>
+    <hyperlink ref="F106" r:id="rId265" xr:uid="{9EBD13D4-8BA8-47BE-9EE0-6DFD5EAEFAD7}"/>
+    <hyperlink ref="F107" r:id="rId266" xr:uid="{4BE6F7BD-458D-4BD5-885C-E1997A64487E}"/>
     <hyperlink ref="C108" r:id="rId267" display="https://ll-fans.jp/data/song/101" xr:uid="{EB7CB70A-2903-497D-B75F-FADB473B1B0A}"/>
     <hyperlink ref="C109" r:id="rId268" display="https://ll-fans.jp/data/song/102" xr:uid="{16406424-0390-4133-9C72-A81C156A7D33}"/>
     <hyperlink ref="C110" r:id="rId269" display="https://ll-fans.jp/data/song/103" xr:uid="{2532DA62-EB0A-41BE-853D-3E264B32074B}"/>
@@ -4750,22 +4929,22 @@
     <hyperlink ref="D114" r:id="rId283" display="https://ll-fans.jp/data/artist/19" xr:uid="{537E6CA7-71E7-4B65-B97C-F7104C833D3D}"/>
     <hyperlink ref="D115" r:id="rId284" display="https://ll-fans.jp/data/artist/1" xr:uid="{0F0D1F3A-BA2F-408A-9AC6-BB97A972E32A}"/>
     <hyperlink ref="D116:D117" r:id="rId285" display="https://ll-fans.jp/data/artist/1" xr:uid="{8F2A47B9-F409-4EE1-B93A-0AEDF6E532ED}"/>
-    <hyperlink ref="E108" r:id="rId286" xr:uid="{6C15F4F0-63C9-4C49-9F84-B3781F0EFD0C}"/>
-    <hyperlink ref="E109" r:id="rId287" xr:uid="{20303D57-C1BD-4B58-A46A-B10424A34702}"/>
-    <hyperlink ref="E110" r:id="rId288" xr:uid="{2FB77101-747F-4C2B-BFF3-BF0BF5F51BC4}"/>
-    <hyperlink ref="E111" r:id="rId289" xr:uid="{BCF6F9CD-5AC4-4BD7-BDCE-0A35892E3BEF}"/>
-    <hyperlink ref="E112" r:id="rId290" xr:uid="{37CBBC87-D0FF-4F3B-B2F6-D8CB7C066BE4}"/>
-    <hyperlink ref="E113" r:id="rId291" xr:uid="{0D5E38B8-0B68-4AFB-A43A-846815C8DF8C}"/>
-    <hyperlink ref="E114" r:id="rId292" xr:uid="{27B29525-F7F4-4E74-B130-8EB8E9CA06D5}"/>
-    <hyperlink ref="E115" r:id="rId293" xr:uid="{D0354DD9-F7F6-476F-89D2-1BD8F1EE7EB2}"/>
-    <hyperlink ref="E116" r:id="rId294" xr:uid="{37943F27-E4FF-4939-837E-E5A49BB7A65D}"/>
-    <hyperlink ref="E117" r:id="rId295" xr:uid="{5CBA6C77-8C09-4F24-84C8-2BF4EAADF30C}"/>
+    <hyperlink ref="F108" r:id="rId286" xr:uid="{6C15F4F0-63C9-4C49-9F84-B3781F0EFD0C}"/>
+    <hyperlink ref="F109" r:id="rId287" xr:uid="{20303D57-C1BD-4B58-A46A-B10424A34702}"/>
+    <hyperlink ref="F110" r:id="rId288" xr:uid="{2FB77101-747F-4C2B-BFF3-BF0BF5F51BC4}"/>
+    <hyperlink ref="F111" r:id="rId289" xr:uid="{BCF6F9CD-5AC4-4BD7-BDCE-0A35892E3BEF}"/>
+    <hyperlink ref="F112" r:id="rId290" xr:uid="{37CBBC87-D0FF-4F3B-B2F6-D8CB7C066BE4}"/>
+    <hyperlink ref="F113" r:id="rId291" xr:uid="{0D5E38B8-0B68-4AFB-A43A-846815C8DF8C}"/>
+    <hyperlink ref="F114" r:id="rId292" xr:uid="{27B29525-F7F4-4E74-B130-8EB8E9CA06D5}"/>
+    <hyperlink ref="F115" r:id="rId293" xr:uid="{D0354DD9-F7F6-476F-89D2-1BD8F1EE7EB2}"/>
+    <hyperlink ref="F116" r:id="rId294" xr:uid="{37943F27-E4FF-4939-837E-E5A49BB7A65D}"/>
+    <hyperlink ref="F117" r:id="rId295" xr:uid="{5CBA6C77-8C09-4F24-84C8-2BF4EAADF30C}"/>
     <hyperlink ref="C118" r:id="rId296" display="https://ll-fans.jp/data/song/118" xr:uid="{72086E8B-102E-4B91-93CF-5776B0F322CB}"/>
     <hyperlink ref="C119" r:id="rId297" display="https://ll-fans.jp/data/song/119" xr:uid="{151257E9-576E-4CAF-95AE-E5DD4DADB75D}"/>
     <hyperlink ref="D118" r:id="rId298" display="https://ll-fans.jp/data/artist/1" xr:uid="{6BA4488C-FB08-417D-929B-6071C334EA0A}"/>
     <hyperlink ref="D119" r:id="rId299" display="https://ll-fans.jp/data/artist/1" xr:uid="{622226E3-3908-4C50-9B14-AFFF1209E822}"/>
-    <hyperlink ref="E118" r:id="rId300" xr:uid="{DA191C96-31CD-4B10-98F2-982743B5FEE0}"/>
-    <hyperlink ref="E119" r:id="rId301" xr:uid="{6DCFFA72-1ABD-461C-960A-7487369D6A81}"/>
+    <hyperlink ref="F118" r:id="rId300" xr:uid="{DA191C96-31CD-4B10-98F2-982743B5FEE0}"/>
+    <hyperlink ref="F119" r:id="rId301" xr:uid="{6DCFFA72-1ABD-461C-960A-7487369D6A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8968BC58-6241-435B-A511-FEFAE8E2FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB7C16-35F1-4DAC-A8EA-B84C62D875D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13305" yWindow="0" windowWidth="15600" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2638,7 +2638,9 @@
       <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="6">
+        <v>41355</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>64</v>
       </c>
@@ -2659,7 +2661,9 @@
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="6">
+        <v>41388</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,7 +2684,9 @@
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="6">
+        <v>41422</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>66</v>
       </c>
@@ -2701,7 +2707,9 @@
       <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="6">
+        <v>41446</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>67</v>
       </c>
@@ -2722,7 +2730,9 @@
       <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="6">
+        <v>41481</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2743,7 +2753,9 @@
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6">
+        <v>41514</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
@@ -2764,7 +2776,9 @@
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="7">
+        <v>41542</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2785,7 +2799,9 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="6">
+        <v>41752</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>82</v>
       </c>
@@ -2806,7 +2822,9 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="6">
+        <v>41752</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>83</v>
       </c>
@@ -2827,7 +2845,9 @@
       <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6">
+        <v>41767</v>
+      </c>
       <c r="F33" s="5" t="s">
         <v>84</v>
       </c>
@@ -2848,7 +2868,9 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="6">
+        <v>41767</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>85</v>
       </c>
@@ -2869,7 +2891,9 @@
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="6">
+        <v>41787</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>87</v>
       </c>
@@ -2890,7 +2914,9 @@
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="6">
+        <v>41787</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>88</v>
       </c>
@@ -2911,7 +2937,9 @@
       <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="6">
+        <v>41801</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>89</v>
       </c>
@@ -2932,7 +2960,9 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="6">
+        <v>41801</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>90</v>
       </c>
@@ -2953,7 +2983,9 @@
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="6">
+        <v>41829</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>91</v>
       </c>
@@ -2974,7 +3006,9 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="7">
+        <v>41829</v>
+      </c>
       <c r="F40" s="4" t="s">
         <v>92</v>
       </c>
@@ -2995,7 +3029,9 @@
       <c r="D41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="6">
+        <v>41810</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>107</v>
       </c>
@@ -3016,7 +3052,9 @@
       <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="6">
+        <v>41845</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3075,9 @@
       <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="6">
+        <v>41878</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>109</v>
       </c>
@@ -3058,7 +3098,9 @@
       <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="6">
+        <v>41906</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>110</v>
       </c>
@@ -3079,7 +3121,9 @@
       <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="6">
+        <v>41941</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>111</v>
       </c>
@@ -3100,7 +3144,9 @@
       <c r="D46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="6">
+        <v>41964</v>
+      </c>
       <c r="F46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3121,7 +3167,9 @@
       <c r="D47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="7">
+        <v>41998</v>
+      </c>
       <c r="F47" s="4" t="s">
         <v>113</v>
       </c>
@@ -3142,7 +3190,9 @@
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="6">
+        <v>41668</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>124</v>
       </c>
@@ -3163,7 +3213,9 @@
       <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="6">
+        <v>41668</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>125</v>
       </c>
@@ -3184,7 +3236,9 @@
       <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="6">
+        <v>41913</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>126</v>
       </c>
@@ -3205,7 +3259,9 @@
       <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="6">
+        <v>41913</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>127</v>
       </c>
@@ -3226,7 +3282,9 @@
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="6">
+        <v>42116</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>128</v>
       </c>
@@ -3247,7 +3305,9 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="6">
+        <v>42116</v>
+      </c>
       <c r="F53" s="5" t="s">
         <v>129</v>
       </c>
@@ -3268,7 +3328,9 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="6">
+        <v>42305</v>
+      </c>
       <c r="F54" s="5" t="s">
         <v>130</v>
       </c>
@@ -3289,7 +3351,9 @@
       <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="6">
+        <v>42305</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>131</v>
       </c>
@@ -3310,7 +3374,9 @@
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="6">
+        <v>41668</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>132</v>
       </c>
@@ -3331,7 +3397,9 @@
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="7">
+        <v>42018</v>
+      </c>
       <c r="F57" s="4" t="s">
         <v>133</v>
       </c>

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AB7C16-35F1-4DAC-A8EA-B84C62D875D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D694CF-7DA1-4BF2-AF4C-279A7C5FE471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="0" windowWidth="15600" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="10785" yWindow="0" windowWidth="18120" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3420,7 +3420,9 @@
       <c r="D58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="6">
+        <v>40688</v>
+      </c>
       <c r="F58" s="5" t="s">
         <v>146</v>
       </c>
@@ -3441,7 +3443,9 @@
       <c r="D59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="6">
+        <v>40688</v>
+      </c>
       <c r="F59" s="5" t="s">
         <v>147</v>
       </c>
@@ -3462,7 +3466,9 @@
       <c r="D60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="6">
+        <v>41507</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>148</v>
       </c>
@@ -3483,7 +3489,9 @@
       <c r="D61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="6">
+        <v>41507</v>
+      </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
@@ -3504,7 +3512,9 @@
       <c r="D62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="1"/>
+      <c r="E62" s="6">
+        <v>41955</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>150</v>
       </c>
@@ -3525,7 +3535,9 @@
       <c r="D63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="6">
+        <v>41955</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>151</v>
       </c>
@@ -3546,7 +3558,9 @@
       <c r="D64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="6">
+        <v>42333</v>
+      </c>
       <c r="F64" s="5" t="s">
         <v>152</v>
       </c>
@@ -3567,7 +3581,9 @@
       <c r="D65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="6">
+        <v>42333</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>153</v>
       </c>
@@ -3588,7 +3604,9 @@
       <c r="D66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="6">
+        <v>41542</v>
+      </c>
       <c r="F66" s="5" t="s">
         <v>154</v>
       </c>
@@ -3609,7 +3627,9 @@
       <c r="D67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="6">
+        <v>41998</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>155</v>
       </c>
@@ -3630,7 +3650,9 @@
       <c r="D68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="7">
+        <v>42147</v>
+      </c>
       <c r="F68" s="4" t="s">
         <v>156</v>
       </c>
@@ -3651,7 +3673,9 @@
       <c r="D69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="6">
+        <v>40716</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>168</v>
       </c>
@@ -3672,7 +3696,9 @@
       <c r="D70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="6">
+        <v>40716</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>169</v>
       </c>
@@ -3693,7 +3719,9 @@
       <c r="D71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="6">
+        <v>41479</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>170</v>
       </c>
@@ -3714,7 +3742,9 @@
       <c r="D72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="6">
+        <v>41479</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>171</v>
       </c>
@@ -3735,7 +3765,9 @@
       <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="6">
+        <v>41997</v>
+      </c>
       <c r="F73" s="5" t="s">
         <v>172</v>
       </c>
@@ -3756,7 +3788,9 @@
       <c r="D74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="1"/>
+      <c r="E74" s="6">
+        <v>41997</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>173</v>
       </c>
@@ -3777,7 +3811,9 @@
       <c r="D75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="1"/>
+      <c r="E75" s="6">
+        <v>42389</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>174</v>
       </c>
@@ -3798,7 +3834,9 @@
       <c r="D76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="6">
+        <v>42389</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>175</v>
       </c>
@@ -3819,7 +3857,9 @@
       <c r="D77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="6">
+        <v>41998</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>176</v>
       </c>
@@ -3840,7 +3880,9 @@
       <c r="D78" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="7">
+        <v>42147</v>
+      </c>
       <c r="F78" s="4" t="s">
         <v>177</v>
       </c>
@@ -3861,7 +3903,9 @@
       <c r="D79" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="6">
+        <v>40751</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>189</v>
       </c>
@@ -3882,7 +3926,9 @@
       <c r="D80" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="6">
+        <v>40751</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>190</v>
       </c>
@@ -3903,7 +3949,9 @@
       <c r="D81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="6">
+        <v>41451</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>191</v>
       </c>
@@ -3924,7 +3972,9 @@
       <c r="D82" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="6">
+        <v>41451</v>
+      </c>
       <c r="F82" s="5" t="s">
         <v>192</v>
       </c>
@@ -3945,7 +3995,9 @@
       <c r="D83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="6">
+        <v>41969</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>193</v>
       </c>
@@ -3966,7 +4018,9 @@
       <c r="D84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="6">
+        <v>41969</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>194</v>
       </c>
@@ -3987,7 +4041,9 @@
       <c r="D85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="6">
+        <v>42361</v>
+      </c>
       <c r="F85" s="5" t="s">
         <v>195</v>
       </c>
@@ -4008,7 +4064,9 @@
       <c r="D86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="6">
+        <v>42361</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>196</v>
       </c>
@@ -4029,7 +4087,9 @@
       <c r="D87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="6">
+        <v>41998</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>197</v>
       </c>
@@ -4050,7 +4110,9 @@
       <c r="D88" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="6">
+        <v>42147</v>
+      </c>
       <c r="F88" s="4" t="s">
         <v>198</v>
       </c>

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D694CF-7DA1-4BF2-AF4C-279A7C5FE471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7ACC83-41D9-4AA7-9E1F-E507A411C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10785" yWindow="0" windowWidth="18120" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,6 +1646,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2085,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2235,10 +2241,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2247,13 +2253,13 @@
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>40779</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>12</v>
       </c>
     </row>
@@ -2465,10 +2471,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2477,13 +2483,13 @@
       <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>41311</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>39</v>
       </c>
     </row>
@@ -2580,10 +2586,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2592,13 +2598,13 @@
       <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <v>41367</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>45</v>
       </c>
     </row>
@@ -2833,10 +2839,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2845,13 +2851,13 @@
       <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <v>41767</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>67</v>
       </c>
     </row>
@@ -3063,10 +3069,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>5</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3075,13 +3081,13 @@
       <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="9">
         <v>41878</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="8">
         <v>79</v>
       </c>
     </row>
@@ -3316,10 +3322,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -3328,13 +3334,13 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="9">
         <v>42305</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="8">
         <v>107</v>
       </c>
     </row>
@@ -3477,10 +3483,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3489,13 +3495,13 @@
       <c r="D61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="9">
         <v>41507</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="8">
         <v>56</v>
       </c>
     </row>
@@ -3753,10 +3759,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>8</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3765,13 +3771,13 @@
       <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="9">
         <v>41997</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="8">
         <v>89</v>
       </c>
     </row>
@@ -4110,7 +4116,7 @@
       <c r="D88" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="7">
         <v>42147</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -4133,7 +4139,9 @@
       <c r="D89" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="6">
+        <v>41024</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>211</v>
       </c>
@@ -4154,7 +4162,9 @@
       <c r="D90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="6">
+        <v>41024</v>
+      </c>
       <c r="F90" s="5" t="s">
         <v>212</v>
       </c>
@@ -4175,7 +4185,9 @@
       <c r="D91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="6">
+        <v>41024</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>213</v>
       </c>
@@ -4184,10 +4196,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="8">
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -4196,11 +4208,13 @@
       <c r="D92" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="9">
+        <v>41052</v>
+      </c>
       <c r="F92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="8">
         <v>22</v>
       </c>
     </row>
@@ -4217,7 +4231,9 @@
       <c r="D93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="6">
+        <v>41052</v>
+      </c>
       <c r="F93" s="5" t="s">
         <v>215</v>
       </c>
@@ -4238,7 +4254,9 @@
       <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="6">
+        <v>41052</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>216</v>
       </c>
@@ -4259,7 +4277,9 @@
       <c r="D95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="6">
+        <v>41087</v>
+      </c>
       <c r="F95" s="5" t="s">
         <v>217</v>
       </c>
@@ -4280,7 +4300,9 @@
       <c r="D96" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="6">
+        <v>41087</v>
+      </c>
       <c r="F96" s="5" t="s">
         <v>218</v>
       </c>
@@ -4301,7 +4323,9 @@
       <c r="D97" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="7">
+        <v>41087</v>
+      </c>
       <c r="F97" s="4" t="s">
         <v>219</v>
       </c>
@@ -4322,7 +4346,9 @@
       <c r="D98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="6">
+        <v>41115</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>235</v>
       </c>
@@ -4331,10 +4357,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A99">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="8">
         <v>11</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4343,11 +4369,13 @@
       <c r="D99" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="9">
+        <v>41115</v>
+      </c>
       <c r="F99" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="8">
         <v>29</v>
       </c>
     </row>
@@ -4364,7 +4392,9 @@
       <c r="D100" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="6">
+        <v>41115</v>
+      </c>
       <c r="F100" s="5" t="s">
         <v>237</v>
       </c>
@@ -4385,7 +4415,9 @@
       <c r="D101" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="6">
+        <v>41115</v>
+      </c>
       <c r="F101" s="5" t="s">
         <v>238</v>
       </c>
@@ -4406,7 +4438,9 @@
       <c r="D102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="6">
+        <v>40933</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>239</v>
       </c>
@@ -4427,7 +4461,9 @@
       <c r="D103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="6">
+        <v>40933</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>240</v>
       </c>
@@ -4448,7 +4484,9 @@
       <c r="D104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="6">
+        <v>40891</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>241</v>
       </c>
@@ -4469,7 +4507,9 @@
       <c r="D105" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="6">
+        <v>40870</v>
+      </c>
       <c r="F105" s="5" t="s">
         <v>242</v>
       </c>
@@ -4490,7 +4530,9 @@
       <c r="D106" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="6">
+        <v>41199</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>243</v>
       </c>
@@ -4511,7 +4553,9 @@
       <c r="D107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="4"/>
+      <c r="E107" s="7">
+        <v>41199</v>
+      </c>
       <c r="F107" s="4" t="s">
         <v>244</v>
       </c>
@@ -4532,7 +4576,9 @@
       <c r="D108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="6">
+        <v>42186</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>256</v>
       </c>
@@ -4553,7 +4599,9 @@
       <c r="D109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="6">
+        <v>42186</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>257</v>
       </c>
@@ -4574,7 +4622,9 @@
       <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="6">
+        <v>42193</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>258</v>
       </c>
@@ -4595,7 +4645,9 @@
       <c r="D111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="6">
+        <v>42193</v>
+      </c>
       <c r="F111" s="5" t="s">
         <v>259</v>
       </c>
@@ -4616,7 +4668,9 @@
       <c r="D112" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="6">
+        <v>42193</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>261</v>
       </c>
@@ -4637,7 +4691,9 @@
       <c r="D113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="6">
+        <v>42200</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>262</v>
       </c>
@@ -4658,7 +4714,9 @@
       <c r="D114" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="1"/>
+      <c r="E114" s="6">
+        <v>42200</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>263</v>
       </c>
@@ -4679,7 +4737,9 @@
       <c r="D115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="6">
+        <v>42353</v>
+      </c>
       <c r="F115" s="1" t="s">
         <v>264</v>
       </c>
@@ -4700,7 +4760,9 @@
       <c r="D116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="6">
+        <v>42431</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>265</v>
       </c>
@@ -4721,7 +4783,9 @@
       <c r="D117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="7">
+        <v>42431</v>
+      </c>
       <c r="F117" s="4" t="s">
         <v>266</v>
       </c>
@@ -4742,7 +4806,9 @@
       <c r="D118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="6">
+        <v>43915</v>
+      </c>
       <c r="F118" s="5" t="s">
         <v>269</v>
       </c>
@@ -4763,7 +4829,9 @@
       <c r="D119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="6">
+        <v>43915</v>
+      </c>
       <c r="F119" s="5" t="s">
         <v>270</v>
       </c>

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7ACC83-41D9-4AA7-9E1F-E507A411C15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0488FEC5-7B97-461F-9B2F-E959024BA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="0" windowWidth="18120" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -986,6 +986,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1642,16 +1645,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1700,7 +1703,10 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -1754,7 +1760,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}" name="テーブル1" displayName="テーブル1" ref="A1:G119" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" dataCellStyle="ハイパーリンク">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}" name="テーブル1" displayName="テーブル1" ref="A1:G119" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" dataCellStyle="ハイパーリンク">
   <autoFilter ref="A1:G119" xr:uid="{67EA8007-942C-4444-A9DB-2994E2E962CA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G119">
     <sortCondition ref="A1:A119"/>
@@ -1764,7 +1770,7 @@
     <tableColumn id="2" xr3:uid="{84BD08B5-F4F4-4182-8050-99D4031C6651}" name="disc"/>
     <tableColumn id="3" xr3:uid="{D284F706-16C6-4558-907D-250FF29FDEF7}" name="title" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="4" xr3:uid="{6602732D-7A38-4523-A26A-F6074063402E}" name="artist" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="7" xr3:uid="{D54A26A7-13B7-4BAA-AD64-2475E02DBA95}" name="date"/>
+    <tableColumn id="7" xr3:uid="{D54A26A7-13B7-4BAA-AD64-2475E02DBA95}" name="date" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{DD46779E-A59E-4D1F-83DA-81EAFB7F3582}" name="url" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="6" xr3:uid="{B9FE4FFA-8B00-418E-89E0-72C0DDE5804A}" name="ll-fans"/>
   </tableColumns>
@@ -2091,14 +2097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="5" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2115,7 +2122,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>271</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2138,7 +2145,7 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>40415</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2161,7 +2168,7 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>40415</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2184,7 +2191,7 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>40534</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2207,7 +2214,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>40534</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2230,7 +2237,7 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>40779</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2241,10 +2248,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2253,13 +2260,13 @@
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>40779</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <v>12</v>
       </c>
     </row>
@@ -2276,7 +2283,7 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>40954</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2299,7 +2306,7 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>40954</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2322,7 +2329,7 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>41157</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2345,7 +2352,7 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>41157</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2368,7 +2375,7 @@
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>41605</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2391,7 +2398,7 @@
       <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>41605</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2414,7 +2421,7 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>41297</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2437,7 +2444,7 @@
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>41297</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2460,7 +2467,7 @@
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>41311</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2471,10 +2478,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2483,13 +2490,13 @@
       <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>41311</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>39</v>
       </c>
     </row>
@@ -2506,7 +2513,7 @@
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>41325</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2529,7 +2536,7 @@
       <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>41325</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2552,7 +2559,7 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>41339</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -2575,7 +2582,7 @@
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>41339</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2586,10 +2593,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2598,13 +2605,13 @@
       <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>41367</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22">
         <v>45</v>
       </c>
     </row>
@@ -2621,7 +2628,7 @@
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>41325</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2644,7 +2651,7 @@
       <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>41355</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2667,7 +2674,7 @@
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>41388</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2690,7 +2697,7 @@
       <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>41422</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2713,7 +2720,7 @@
       <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>41446</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2736,7 +2743,7 @@
       <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>41481</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2759,7 +2766,7 @@
       <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>41514</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2782,7 +2789,7 @@
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>41542</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2805,7 +2812,7 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>41752</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2828,7 +2835,7 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>41752</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2839,10 +2846,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="8">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2851,13 +2858,13 @@
       <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>41767</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33">
         <v>67</v>
       </c>
     </row>
@@ -2874,7 +2881,7 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="7">
         <v>41767</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2897,7 +2904,7 @@
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>41787</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2920,7 +2927,7 @@
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="7">
         <v>41787</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2943,7 +2950,7 @@
       <c r="D37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>41801</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2966,7 +2973,7 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>41801</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2989,7 +2996,7 @@
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>41829</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -3012,7 +3019,7 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>41829</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -3035,7 +3042,7 @@
       <c r="D41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>41810</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -3058,7 +3065,7 @@
       <c r="D42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>41845</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3069,10 +3076,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="8">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3081,13 +3088,13 @@
       <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <v>41878</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43">
         <v>79</v>
       </c>
     </row>
@@ -3104,7 +3111,7 @@
       <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="7">
         <v>41906</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3127,7 +3134,7 @@
       <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>41941</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3150,7 +3157,7 @@
       <c r="D46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="7">
         <v>41964</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -3173,7 +3180,7 @@
       <c r="D47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>41998</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -3196,7 +3203,7 @@
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>41668</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3219,7 +3226,7 @@
       <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>41668</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3242,7 +3249,7 @@
       <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="7">
         <v>41913</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -3265,7 +3272,7 @@
       <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>41913</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3288,7 +3295,7 @@
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="7">
         <v>42116</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3311,7 +3318,7 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="7">
         <v>42116</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3322,10 +3329,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="8">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -3334,13 +3341,13 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>42305</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54">
         <v>107</v>
       </c>
     </row>
@@ -3357,7 +3364,7 @@
       <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="7">
         <v>42305</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3380,7 +3387,7 @@
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="7">
         <v>41668</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3403,7 +3410,7 @@
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>42018</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3426,7 +3433,7 @@
       <c r="D58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="7">
         <v>40688</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3449,7 +3456,7 @@
       <c r="D59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="7">
         <v>40688</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3472,7 +3479,7 @@
       <c r="D60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>41507</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3483,10 +3490,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="8">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61">
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3495,13 +3502,13 @@
       <c r="D61" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>41507</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61">
         <v>56</v>
       </c>
     </row>
@@ -3518,7 +3525,7 @@
       <c r="D62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="7">
         <v>41955</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3541,7 +3548,7 @@
       <c r="D63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="7">
         <v>41955</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3564,7 +3571,7 @@
       <c r="D64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="7">
         <v>42333</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -3587,7 +3594,7 @@
       <c r="D65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="7">
         <v>42333</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3610,7 +3617,7 @@
       <c r="D66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="7">
         <v>41542</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -3633,7 +3640,7 @@
       <c r="D67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="7">
         <v>41998</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -3656,7 +3663,7 @@
       <c r="D68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>42147</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3679,7 +3686,7 @@
       <c r="D69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="7">
         <v>40716</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -3702,7 +3709,7 @@
       <c r="D70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="7">
         <v>40716</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -3725,7 +3732,7 @@
       <c r="D71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="7">
         <v>41479</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3748,7 +3755,7 @@
       <c r="D72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="7">
         <v>41479</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -3759,10 +3766,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="8">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73">
         <v>8</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3771,13 +3778,13 @@
       <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="7">
         <v>41997</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73">
         <v>89</v>
       </c>
     </row>
@@ -3794,7 +3801,7 @@
       <c r="D74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="7">
         <v>41997</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -3817,7 +3824,7 @@
       <c r="D75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="7">
         <v>42389</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -3840,7 +3847,7 @@
       <c r="D76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="7">
         <v>42389</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -3863,7 +3870,7 @@
       <c r="D77" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="7">
         <v>41998</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -3886,7 +3893,7 @@
       <c r="D78" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>42147</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -3909,7 +3916,7 @@
       <c r="D79" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="7">
         <v>40751</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -3932,7 +3939,7 @@
       <c r="D80" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="7">
         <v>40751</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -3955,7 +3962,7 @@
       <c r="D81" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="7">
         <v>41451</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -3978,7 +3985,7 @@
       <c r="D82" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="7">
         <v>41451</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -4001,7 +4008,7 @@
       <c r="D83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="7">
         <v>41969</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -4024,7 +4031,7 @@
       <c r="D84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="7">
         <v>41969</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -4047,7 +4054,7 @@
       <c r="D85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="7">
         <v>42361</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -4070,7 +4077,7 @@
       <c r="D86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="7">
         <v>42361</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -4093,7 +4100,7 @@
       <c r="D87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="7">
         <v>41998</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -4116,7 +4123,7 @@
       <c r="D88" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>42147</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -4139,7 +4146,7 @@
       <c r="D89" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="7">
         <v>41024</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -4162,7 +4169,7 @@
       <c r="D90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="7">
         <v>41024</v>
       </c>
       <c r="F90" s="5" t="s">
@@ -4185,7 +4192,7 @@
       <c r="D91" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="7">
         <v>41024</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -4196,10 +4203,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92" s="8">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92">
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -4208,13 +4215,13 @@
       <c r="D92" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="7">
         <v>41052</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92">
         <v>22</v>
       </c>
     </row>
@@ -4231,7 +4238,7 @@
       <c r="D93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="7">
         <v>41052</v>
       </c>
       <c r="F93" s="5" t="s">
@@ -4254,7 +4261,7 @@
       <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="7">
         <v>41052</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -4277,7 +4284,7 @@
       <c r="D95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="7">
         <v>41087</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -4300,7 +4307,7 @@
       <c r="D96" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="7">
         <v>41087</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -4323,7 +4330,7 @@
       <c r="D97" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="8">
         <v>41087</v>
       </c>
       <c r="F97" s="4" t="s">
@@ -4346,7 +4353,7 @@
       <c r="D98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="7">
         <v>41115</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -4357,10 +4364,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A99" s="8">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99">
         <v>11</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4369,13 +4376,13 @@
       <c r="D99" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="7">
         <v>41115</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99">
         <v>29</v>
       </c>
     </row>
@@ -4392,7 +4399,7 @@
       <c r="D100" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="7">
         <v>41115</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -4415,7 +4422,7 @@
       <c r="D101" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="7">
         <v>41115</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -4438,7 +4445,7 @@
       <c r="D102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="7">
         <v>40933</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -4461,7 +4468,7 @@
       <c r="D103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="7">
         <v>40933</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4484,7 +4491,7 @@
       <c r="D104" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="7">
         <v>40891</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -4507,7 +4514,7 @@
       <c r="D105" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="7">
         <v>40870</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -4530,7 +4537,7 @@
       <c r="D106" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="7">
         <v>41199</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -4553,7 +4560,7 @@
       <c r="D107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="8">
         <v>41199</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -4576,7 +4583,7 @@
       <c r="D108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="7">
         <v>42186</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -4599,7 +4606,7 @@
       <c r="D109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="7">
         <v>42186</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -4622,7 +4629,7 @@
       <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="7">
         <v>42193</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4645,7 +4652,7 @@
       <c r="D111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="7">
         <v>42193</v>
       </c>
       <c r="F111" s="5" t="s">
@@ -4668,7 +4675,7 @@
       <c r="D112" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="7">
         <v>42193</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -4691,7 +4698,7 @@
       <c r="D113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="7">
         <v>42200</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4714,7 +4721,7 @@
       <c r="D114" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="7">
         <v>42200</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -4737,7 +4744,7 @@
       <c r="D115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="7">
         <v>42353</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -4760,7 +4767,7 @@
       <c r="D116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="7">
         <v>42431</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -4783,7 +4790,7 @@
       <c r="D117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="8">
         <v>42431</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -4806,7 +4813,7 @@
       <c r="D118" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="7">
         <v>43915</v>
       </c>
       <c r="F118" s="5" t="s">
@@ -4829,7 +4836,7 @@
       <c r="D119" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="7">
         <v>43915</v>
       </c>
       <c r="F119" s="5" t="s">

--- a/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
+++ b/data/μ's Memorial CD-BOX「Complete BEST BOX」.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0488FEC5-7B97-461F-9B2F-E959024BA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA37C83-16A3-43BC-9C94-3738342371AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
@@ -616,10 +616,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4K7_eD4EedQ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QJXmBU-Pajc</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -981,13 +977,17 @@
     <t>date</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QJXmBU-PAjc</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1645,16 +1645,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,7 +1705,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2123,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>26</v>
@@ -3782,7 +3782,7 @@
         <v>41997</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="G73">
         <v>89</v>
@@ -3805,7 +3805,7 @@
         <v>41997</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G74">
         <v>90</v>
@@ -3828,7 +3828,7 @@
         <v>42389</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G75">
         <v>114</v>
@@ -3851,7 +3851,7 @@
         <v>42389</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G76">
         <v>115</v>
@@ -3874,7 +3874,7 @@
         <v>41998</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G77">
         <v>94</v>
@@ -3897,7 +3897,7 @@
         <v>42147</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" s="3">
         <v>99</v>
@@ -3911,16 +3911,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E79" s="7">
         <v>40751</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G79">
         <v>9</v>
@@ -3934,16 +3934,16 @@
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E80" s="7">
         <v>40751</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -3957,16 +3957,16 @@
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E81" s="7">
         <v>41451</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G81">
         <v>50</v>
@@ -3980,16 +3980,16 @@
         <v>9</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E82" s="7">
         <v>41451</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G82">
         <v>51</v>
@@ -4003,16 +4003,16 @@
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E83" s="7">
         <v>41969</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G83">
         <v>87</v>
@@ -4026,16 +4026,16 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E84" s="7">
         <v>41969</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G84">
         <v>88</v>
@@ -4049,16 +4049,16 @@
         <v>9</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E85" s="7">
         <v>42361</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G85">
         <v>112</v>
@@ -4072,16 +4072,16 @@
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E86" s="7">
         <v>42361</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G86">
         <v>113</v>
@@ -4095,16 +4095,16 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E87" s="7">
         <v>41998</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G87">
         <v>93</v>
@@ -4118,16 +4118,16 @@
         <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E88" s="8">
         <v>42147</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G88" s="3">
         <v>100</v>
@@ -4141,16 +4141,16 @@
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" s="7">
         <v>41024</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G89">
         <v>19</v>
@@ -4164,7 +4164,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>58</v>
@@ -4173,7 +4173,7 @@
         <v>41024</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G90">
         <v>20</v>
@@ -4187,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>102</v>
@@ -4196,7 +4196,7 @@
         <v>41024</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G91">
         <v>21</v>
@@ -4210,16 +4210,16 @@
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="7">
         <v>41052</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G92">
         <v>22</v>
@@ -4233,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>62</v>
@@ -4242,7 +4242,7 @@
         <v>41052</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G93">
         <v>23</v>
@@ -4256,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>104</v>
@@ -4265,7 +4265,7 @@
         <v>41052</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G94">
         <v>24</v>
@@ -4279,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>105</v>
@@ -4288,7 +4288,7 @@
         <v>41087</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G95">
         <v>25</v>
@@ -4302,16 +4302,16 @@
         <v>10</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" s="7">
         <v>41087</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G96">
         <v>26</v>
@@ -4325,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>60</v>
@@ -4334,7 +4334,7 @@
         <v>41087</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G97" s="3">
         <v>27</v>
@@ -4348,16 +4348,16 @@
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E98" s="7">
         <v>41115</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G98">
         <v>28</v>
@@ -4371,16 +4371,16 @@
         <v>11</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E99" s="7">
         <v>41115</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G99">
         <v>29</v>
@@ -4394,16 +4394,16 @@
         <v>11</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E100" s="7">
         <v>41115</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G100">
         <v>30</v>
@@ -4417,16 +4417,16 @@
         <v>11</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E101" s="7">
         <v>41115</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G101">
         <v>31</v>
@@ -4440,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>58</v>
@@ -4449,7 +4449,7 @@
         <v>40933</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G102">
         <v>15</v>
@@ -4463,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>58</v>
@@ -4472,7 +4472,7 @@
         <v>40933</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G103">
         <v>16</v>
@@ -4486,16 +4486,16 @@
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E104" s="7">
         <v>40891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G104">
         <v>14</v>
@@ -4509,16 +4509,16 @@
         <v>11</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E105" s="7">
         <v>40870</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G105">
         <v>13</v>
@@ -4532,16 +4532,16 @@
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E106" s="7">
         <v>41199</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G106">
         <v>34</v>
@@ -4555,16 +4555,16 @@
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="8">
         <v>41199</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G107" s="3">
         <v>35</v>
@@ -4578,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>42186</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G108">
         <v>101</v>
@@ -4601,16 +4601,16 @@
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E109" s="7">
         <v>42186</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G109">
         <v>102</v>
@@ -4624,7 +4624,7 @@
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>6</v>
@@ -4633,7 +4633,7 @@
         <v>42193</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G110">
         <v>103</v>
@@ -4647,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>6</v>
@@ -4656,7 +4656,7 @@
         <v>42193</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G111">
         <v>103</v>
@@ -4670,16 +4670,16 @@
         <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E112" s="7">
         <v>42193</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G112">
         <v>104</v>
@@ -4693,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>6</v>
@@ -4702,7 +4702,7 @@
         <v>42200</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G113">
         <v>105</v>
@@ -4716,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>40</v>
@@ -4725,7 +4725,7 @@
         <v>42200</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G114">
         <v>106</v>
@@ -4739,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>6</v>
@@ -4748,7 +4748,7 @@
         <v>42353</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G115">
         <v>111</v>
@@ -4762,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>6</v>
@@ -4771,7 +4771,7 @@
         <v>42431</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G116">
         <v>116</v>
@@ -4785,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>6</v>
@@ -4794,7 +4794,7 @@
         <v>42431</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G117" s="3">
         <v>117</v>
@@ -4808,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>6</v>
@@ -4817,7 +4817,7 @@
         <v>43915</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G118">
         <v>118</v>
@@ -4831,7 +4831,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>6</v>
@@ -4840,7 +4840,7 @@
         <v>43915</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G119">
         <v>119</v>
